--- a/hello.xlsx
+++ b/hello.xlsx
@@ -14,153 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Name-Parser-Type</t>
-  </si>
-  <si>
-    <t>Name-Parser-Type-Alt</t>
-  </si>
-  <si>
-    <t>First-Last-Name</t>
+    <t>First-Name</t>
+  </si>
+  <si>
+    <t>Last-Name</t>
+  </si>
+  <si>
+    <t>Likely-Gender</t>
+  </si>
+  <si>
+    <t>Gender-Scale</t>
   </si>
   <si>
     <t>Score</t>
   </si>
   <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>Oscar Lawrence</t>
-  </si>
-  <si>
-    <t>FN1LN1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'Oscar', 'lastName': 'Lawrence'}</t>
-  </si>
-  <si>
-    <t>1.1028782830206576</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>Jesse Johnston</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'Jesse', 'lastName': 'Johnston'}</t>
-  </si>
-  <si>
-    <t>23.63613617145121</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>Kenneth Mcgee</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'Kenneth', 'lastName': 'Mcgee'}</t>
-  </si>
-  <si>
-    <t>55.37036489790589</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>Lucas Torres</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'Lucas', 'lastName': 'Torres'}</t>
-  </si>
-  <si>
-    <t>27.728602874596294</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>Rhonda Herrera</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'Rhonda', 'lastName': 'Herrera'}</t>
-  </si>
-  <si>
-    <t>37.22560301808376</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>Molly Dixon</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'Molly', 'lastName': 'Dixon'}</t>
-  </si>
-  <si>
-    <t>15.556550881794742</t>
-  </si>
-  <si>
-    <t>974</t>
-  </si>
-  <si>
-    <t>Devin Fernandez</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'Devin', 'lastName': 'Fernandez'}</t>
-  </si>
-  <si>
-    <t>37.21015080658581</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>Stacey George</t>
-  </si>
-  <si>
-    <t>LN1FN1</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'George', 'lastName': 'Stacey'}</t>
-  </si>
-  <si>
-    <t>9.445291910747269</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>David Davis</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'David', 'lastName': 'Davis'}</t>
-  </si>
-  <si>
-    <t>15.079782026578242</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>Kevin Garza</t>
-  </si>
-  <si>
-    <t>{'id': None, 'firstName': 'Kevin', 'lastName': 'Garza'}</t>
-  </si>
-  <si>
-    <t>46.719939723728054</t>
+    <t>Probability-Calibrated</t>
+  </si>
+  <si>
+    <t>A2773</t>
+  </si>
+  <si>
+    <t>Lelouch</t>
+  </si>
+  <si>
+    <t>Lamperouge</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>9.000730451243589</t>
+  </si>
+  <si>
+    <t>0.6253864122577326</t>
+  </si>
+  <si>
+    <t>M9835</t>
+  </si>
+  <si>
+    <t>Gon</t>
+  </si>
+  <si>
+    <t>Freecs</t>
+  </si>
+  <si>
+    <t>13.642314538001958</t>
+  </si>
+  <si>
+    <t>0.769074917217108</t>
+  </si>
+  <si>
+    <t>M6104</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Joestar</t>
+  </si>
+  <si>
+    <t>31.19593780075564</t>
+  </si>
+  <si>
+    <t>0.9885021299099135</t>
   </si>
 </sst>
 </file>
@@ -492,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,205 +442,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
